--- a/TestResult/TestResult_hes-api_2020-10-23.xlsx
+++ b/TestResult/TestResult_hes-api_2020-10-23.xlsx
@@ -1133,7 +1133,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>{"code":200,"desc":"Ok","deviceNo":"119190000109","transactionId":"1","parameter":null,"data":{"year":2020,"month":10,"day":23,"hour":17,"minute":22,"second":35}}</t>
+          <t>{"code":200,"desc":"Ok","deviceNo":"119190000109","transactionId":"1","parameter":null,"data":{"year":2020,"month":10,"day":23,"hour":18,"minute":0,"second":18}}</t>
         </is>
       </c>
       <c r="M2" s="30" t="inlineStr">
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>2.296758</v>
+        <v>2.043825</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -1224,7 +1224,7 @@
         <v>1</v>
       </c>
       <c r="R3" t="n">
-        <v>0.027403</v>
+        <v>0.03098</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -1298,7 +1298,7 @@
         <v>1</v>
       </c>
       <c r="R4" t="n">
-        <v>0.025075</v>
+        <v>0.042717</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.048399</v>
+        <v>0.062469</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>1</v>
       </c>
       <c r="R6" t="n">
-        <v>0.032212</v>
+        <v>0.163424</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>1</v>
       </c>
       <c r="R7" t="n">
-        <v>0.021046</v>
+        <v>0.022416</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>

--- a/TestResult/TestResult_hes-api_2020-10-23.xlsx
+++ b/TestResult/TestResult_hes-api_2020-10-23.xlsx
@@ -293,9 +293,6 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -324,6 +321,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -951,35 +951,35 @@
   <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E21" sqref="E21"/>
+      <selection pane="bottomRight" activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="10.81640625" defaultRowHeight="15.6" outlineLevelCol="0"/>
   <cols>
-    <col width="4.36328125" customWidth="1" style="30" min="1" max="1"/>
-    <col width="8.08984375" customWidth="1" style="30" min="2" max="2"/>
-    <col width="17.453125" customWidth="1" style="30" min="3" max="3"/>
-    <col width="41.1796875" customWidth="1" style="30" min="4" max="4"/>
-    <col width="26.26953125" customWidth="1" style="30" min="5" max="5"/>
-    <col width="7.26953125" bestFit="1" customWidth="1" style="30" min="6" max="6"/>
-    <col width="13.6328125" bestFit="1" customWidth="1" style="30" min="7" max="7"/>
-    <col width="24.6328125" customWidth="1" style="30" min="8" max="8"/>
-    <col width="137.36328125" customWidth="1" style="30" min="9" max="9"/>
-    <col width="14.453125" customWidth="1" style="30" min="10" max="10"/>
-    <col width="11.1796875" customWidth="1" style="30" min="11" max="11"/>
-    <col width="8.7265625" bestFit="1" customWidth="1" style="30" min="12" max="12"/>
-    <col width="32.54296875" customWidth="1" style="30" min="13" max="13"/>
-    <col width="13.54296875" customWidth="1" style="30" min="14" max="14"/>
-    <col width="13.54296875" bestFit="1" customWidth="1" style="34" min="15" max="15"/>
-    <col width="21.36328125" customWidth="1" style="30" min="16" max="16"/>
-    <col width="12.453125" customWidth="1" style="30" min="17" max="17"/>
-    <col width="12.6328125" customWidth="1" style="30" min="18" max="18"/>
-    <col width="4.90625" bestFit="1" customWidth="1" style="30" min="19" max="19"/>
-    <col width="11.453125" bestFit="1" customWidth="1" style="30" min="20" max="20"/>
-    <col width="10.81640625" customWidth="1" style="30" min="21" max="16384"/>
+    <col width="4.36328125" customWidth="1" style="29" min="1" max="1"/>
+    <col width="8.08984375" customWidth="1" style="29" min="2" max="2"/>
+    <col width="17.453125" customWidth="1" style="29" min="3" max="3"/>
+    <col width="41.1796875" customWidth="1" style="29" min="4" max="4"/>
+    <col width="26.26953125" customWidth="1" style="29" min="5" max="5"/>
+    <col width="7.26953125" bestFit="1" customWidth="1" style="29" min="6" max="6"/>
+    <col width="13.6328125" bestFit="1" customWidth="1" style="29" min="7" max="7"/>
+    <col width="24.6328125" customWidth="1" style="29" min="8" max="8"/>
+    <col width="137.36328125" customWidth="1" style="29" min="9" max="9"/>
+    <col width="14.453125" customWidth="1" style="29" min="10" max="10"/>
+    <col width="11.1796875" customWidth="1" style="29" min="11" max="11"/>
+    <col width="8.7265625" bestFit="1" customWidth="1" style="29" min="12" max="12"/>
+    <col width="32.54296875" customWidth="1" style="29" min="13" max="13"/>
+    <col width="13.54296875" customWidth="1" style="29" min="14" max="14"/>
+    <col width="13.54296875" bestFit="1" customWidth="1" style="33" min="15" max="15"/>
+    <col width="21.36328125" customWidth="1" style="29" min="16" max="16"/>
+    <col width="12.453125" customWidth="1" style="29" min="17" max="17"/>
+    <col width="12.6328125" customWidth="1" style="29" min="18" max="18"/>
+    <col width="4.90625" bestFit="1" customWidth="1" style="29" min="19" max="19"/>
+    <col width="11.453125" bestFit="1" customWidth="1" style="29" min="20" max="20"/>
+    <col width="10.81640625" customWidth="1" style="29" min="21" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="34.05" customFormat="1" customHeight="1" s="28">
@@ -1033,12 +1033,12 @@
           <t>Expected Code</t>
         </is>
       </c>
-      <c r="K1" s="28" t="inlineStr">
+      <c r="K1" s="31" t="inlineStr">
         <is>
           <t>Response Date</t>
         </is>
       </c>
-      <c r="L1" s="28" t="inlineStr">
+      <c r="L1" s="31" t="inlineStr">
         <is>
           <t>Error Info</t>
         </is>
@@ -1053,7 +1053,7 @@
           <t>Assert Rule</t>
         </is>
       </c>
-      <c r="O1" s="32" t="inlineStr">
+      <c r="O1" s="31" t="inlineStr">
         <is>
           <t>Assert Result</t>
         </is>
@@ -1068,7 +1068,7 @@
           <t>上传文件名称</t>
         </is>
       </c>
-      <c r="R1" s="28" t="inlineStr">
+      <c r="R1" s="31" t="inlineStr">
         <is>
           <t>接口返回时间</t>
         </is>
@@ -1078,79 +1078,79 @@
           <t>备注</t>
         </is>
       </c>
-      <c r="T1" s="29" t="inlineStr">
+      <c r="T1" s="39" t="inlineStr">
         <is>
           <t>curl调试使用</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="30" t="n">
+      <c r="A2" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="30" t="inlineStr">
+      <c r="B2" s="29" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="C2" s="30" t="inlineStr">
+      <c r="C2" s="29" t="inlineStr">
         <is>
           <t>DeviceTime相关</t>
         </is>
       </c>
-      <c r="D2" s="30" t="inlineStr">
+      <c r="D2" s="29" t="inlineStr">
         <is>
           <t>对在线DCU读取时间</t>
         </is>
       </c>
-      <c r="E2" s="30" t="inlineStr">
+      <c r="E2" s="29" t="inlineStr">
         <is>
           <t>DCU进行读取时间操作</t>
         </is>
       </c>
-      <c r="F2" s="30" t="inlineStr">
+      <c r="F2" s="29" t="inlineStr">
         <is>
           <t>GET</t>
         </is>
       </c>
-      <c r="G2" s="30" t="inlineStr">
+      <c r="G2" s="29" t="inlineStr">
         <is>
           <t>/Mdm/getTime</t>
         </is>
       </c>
-      <c r="H2" s="31" t="inlineStr">
+      <c r="H2" s="30" t="inlineStr">
         <is>
           <t>{"Content-type": "application/json; charset=utf-8"}</t>
         </is>
       </c>
-      <c r="I2" s="30" t="inlineStr">
+      <c r="I2" s="29" t="inlineStr">
         <is>
           <t>{"deviceNo":"119190000109","deviceType":"10","transactionId":"1","taskType":"0","api-version":"1.0"}</t>
         </is>
       </c>
-      <c r="J2" s="30" t="n">
+      <c r="J2" s="29" t="n">
         <v>200</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>{"code":200,"desc":"Ok","deviceNo":"119190000109","transactionId":"1","parameter":null,"data":{"year":2020,"month":10,"day":23,"hour":18,"minute":0,"second":18}}</t>
-        </is>
-      </c>
-      <c r="M2" s="30" t="inlineStr">
+          <t>{"code":200,"desc":"Ok","deviceNo":"119190000109","transactionId":"1","parameter":null,"data":{"year":2020,"month":10,"day":23,"hour":18,"minute":10,"second":38}}</t>
+        </is>
+      </c>
+      <c r="M2" s="29" t="inlineStr">
         <is>
           <t>"year":2020,"month":10,"day":21</t>
         </is>
       </c>
-      <c r="N2" s="30" t="inlineStr">
+      <c r="N2" s="29" t="inlineStr">
         <is>
           <t>包含</t>
         </is>
       </c>
-      <c r="O2" s="34" t="b">
+      <c r="O2" s="33" t="b">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>2.043825</v>
+        <v>3.559664</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -1159,50 +1159,50 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="30" t="n">
+      <c r="A3" s="29" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="30" t="inlineStr">
+      <c r="B3" s="29" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="C3" s="30" t="inlineStr">
+      <c r="C3" s="29" t="inlineStr">
         <is>
           <t>DeviceTime相关</t>
         </is>
       </c>
-      <c r="D3" s="30" t="inlineStr">
+      <c r="D3" s="29" t="inlineStr">
         <is>
           <t>对离线DCU读取时间</t>
         </is>
       </c>
-      <c r="E3" s="30" t="inlineStr">
+      <c r="E3" s="29" t="inlineStr">
         <is>
           <t>DCU进行读取时间操作</t>
         </is>
       </c>
-      <c r="F3" s="30" t="inlineStr">
+      <c r="F3" s="29" t="inlineStr">
         <is>
           <t>GET</t>
         </is>
       </c>
-      <c r="G3" s="30" t="inlineStr">
+      <c r="G3" s="29" t="inlineStr">
         <is>
           <t>/Mdm/getTime</t>
         </is>
       </c>
-      <c r="H3" s="30" t="inlineStr">
+      <c r="H3" s="29" t="inlineStr">
         <is>
           <t>{"Content-type": "application/json; charset=utf-8"}</t>
         </is>
       </c>
-      <c r="I3" s="30" t="inlineStr">
+      <c r="I3" s="29" t="inlineStr">
         <is>
           <t>{"deviceNo":"129191000002","deviceType":"10","transactionId":"1","taskType":"0","api-version":"1.0"}</t>
         </is>
       </c>
-      <c r="J3" s="30" t="n">
+      <c r="J3" s="29" t="n">
         <v>200</v>
       </c>
       <c r="K3" t="inlineStr">
@@ -1210,21 +1210,21 @@
           <t>{"code":500,"desc":"Master device 129191000002 offline!","deviceNo":null,"transactionId":null,"parameter":null,"data":null}</t>
         </is>
       </c>
-      <c r="M3" s="30" t="inlineStr">
+      <c r="M3" s="29" t="inlineStr">
         <is>
           <t>offline</t>
         </is>
       </c>
-      <c r="N3" s="30" t="inlineStr">
+      <c r="N3" s="29" t="inlineStr">
         <is>
           <t>包含</t>
         </is>
       </c>
-      <c r="O3" s="34" t="b">
+      <c r="O3" s="33" t="b">
         <v>1</v>
       </c>
       <c r="R3" t="n">
-        <v>0.03098</v>
+        <v>0.030757</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -1233,50 +1233,50 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="30" t="n">
+      <c r="A4" s="29" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="30" t="inlineStr">
+      <c r="B4" s="29" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="C4" s="30" t="inlineStr">
+      <c r="C4" s="29" t="inlineStr">
         <is>
           <t>DeviceTime相关</t>
         </is>
       </c>
-      <c r="D4" s="30" t="inlineStr">
+      <c r="D4" s="29" t="inlineStr">
         <is>
           <t>对不存在DCU读取时间</t>
         </is>
       </c>
-      <c r="E4" s="30" t="inlineStr">
+      <c r="E4" s="29" t="inlineStr">
         <is>
           <t>DCU进行读取时间操作</t>
         </is>
       </c>
-      <c r="F4" s="30" t="inlineStr">
+      <c r="F4" s="29" t="inlineStr">
         <is>
           <t>GET</t>
         </is>
       </c>
-      <c r="G4" s="30" t="inlineStr">
+      <c r="G4" s="29" t="inlineStr">
         <is>
           <t>/Mdm/getTime</t>
         </is>
       </c>
-      <c r="H4" s="30" t="inlineStr">
+      <c r="H4" s="29" t="inlineStr">
         <is>
           <t>{"Content-type": "application/json; charset=utf-8"}</t>
         </is>
       </c>
-      <c r="I4" s="30" t="inlineStr">
+      <c r="I4" s="29" t="inlineStr">
         <is>
           <t>{"deviceNo":"800000000000","deviceType":"10","transactionId":"1","taskType":"0","api-version":"1.0"}</t>
         </is>
       </c>
-      <c r="J4" s="30" t="n">
+      <c r="J4" s="29" t="n">
         <v>200</v>
       </c>
       <c r="K4" t="inlineStr">
@@ -1284,21 +1284,21 @@
           <t>{"code":500,"desc":"DCU No.(800000000000) is not found","deviceNo":null,"transactionId":null,"parameter":null,"data":null}</t>
         </is>
       </c>
-      <c r="M4" s="30" t="inlineStr">
+      <c r="M4" s="29" t="inlineStr">
         <is>
           <t>DCU No.(800000000000) is not found</t>
         </is>
       </c>
-      <c r="N4" s="30" t="inlineStr">
+      <c r="N4" s="29" t="inlineStr">
         <is>
           <t>包含</t>
         </is>
       </c>
-      <c r="O4" s="34" t="b">
+      <c r="O4" s="33" t="b">
         <v>1</v>
       </c>
       <c r="R4" t="n">
-        <v>0.042717</v>
+        <v>0.031925</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1307,50 +1307,50 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="30" t="n">
+      <c r="A5" s="29" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="30" t="inlineStr">
+      <c r="B5" s="29" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="C5" s="30" t="inlineStr">
+      <c r="C5" s="29" t="inlineStr">
         <is>
           <t>DeviceTime相关</t>
         </is>
       </c>
-      <c r="D5" s="30" t="inlineStr">
+      <c r="D5" s="29" t="inlineStr">
         <is>
           <t>对在线的DCU设置时间</t>
         </is>
       </c>
-      <c r="E5" s="30" t="inlineStr">
+      <c r="E5" s="29" t="inlineStr">
         <is>
           <t>DCU进行设置时间操作</t>
         </is>
       </c>
-      <c r="F5" s="30" t="inlineStr">
+      <c r="F5" s="29" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="G5" s="30" t="inlineStr">
+      <c r="G5" s="29" t="inlineStr">
         <is>
           <t>/Mdm/setTime</t>
         </is>
       </c>
-      <c r="H5" s="30" t="inlineStr">
+      <c r="H5" s="29" t="inlineStr">
         <is>
           <t>{"Content-type": "application/json; charset=utf-8"}</t>
         </is>
       </c>
-      <c r="I5" s="30" t="inlineStr">
+      <c r="I5" s="29" t="inlineStr">
         <is>
           <t>{"deviceNo": "900000000000","transactionId": "1","deviceType": "10","taskType": "0","year": "2020","month": "04","day": "04","hour": "23","minute": "23","second": "23"}</t>
         </is>
       </c>
-      <c r="J5" s="30" t="n">
+      <c r="J5" s="29" t="n">
         <v>200</v>
       </c>
       <c r="K5" t="inlineStr">
@@ -1358,21 +1358,21 @@
           <t>{"code":500,"desc":"DCU No.(900000000000) is not found","deviceNo":null,"transactionId":null,"parameter":null,"data":null}</t>
         </is>
       </c>
-      <c r="M5" s="30" t="inlineStr">
+      <c r="M5" s="29" t="inlineStr">
         <is>
           <t>offline</t>
         </is>
       </c>
-      <c r="N5" s="30" t="inlineStr">
+      <c r="N5" s="29" t="inlineStr">
         <is>
           <t>包含</t>
         </is>
       </c>
-      <c r="O5" s="34" t="b">
+      <c r="O5" s="33" t="b">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.062469</v>
+        <v>0.029599</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1381,50 +1381,50 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="30" t="n">
+      <c r="A6" s="29" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="30" t="inlineStr">
+      <c r="B6" s="29" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="C6" s="30" t="inlineStr">
+      <c r="C6" s="29" t="inlineStr">
         <is>
           <t>DeviceTime相关</t>
         </is>
       </c>
-      <c r="D6" s="30" t="inlineStr">
+      <c r="D6" s="29" t="inlineStr">
         <is>
           <t>对离线的DCU设置时间</t>
         </is>
       </c>
-      <c r="E6" s="30" t="inlineStr">
+      <c r="E6" s="29" t="inlineStr">
         <is>
           <t>DCU进行设置时间操作</t>
         </is>
       </c>
-      <c r="F6" s="30" t="inlineStr">
+      <c r="F6" s="29" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="G6" s="30" t="inlineStr">
+      <c r="G6" s="29" t="inlineStr">
         <is>
           <t>/Mdm/setTime</t>
         </is>
       </c>
-      <c r="H6" s="30" t="inlineStr">
+      <c r="H6" s="29" t="inlineStr">
         <is>
           <t>{"Content-type": "application/json; charset=utf-8"}</t>
         </is>
       </c>
-      <c r="I6" s="30" t="inlineStr">
+      <c r="I6" s="29" t="inlineStr">
         <is>
           <t>{"deviceNo": "129191000002","transactionId": "1","deviceType": "10","taskType": "0","year": "2020","month": "04","day": "04","hour": "23","minute": "23","second": "23"}</t>
         </is>
       </c>
-      <c r="J6" s="30" t="n">
+      <c r="J6" s="29" t="n">
         <v>200</v>
       </c>
       <c r="K6" t="inlineStr">
@@ -1432,21 +1432,21 @@
           <t>{"code":500,"desc":"Master device 129191000002 offline!","deviceNo":null,"transactionId":null,"parameter":null,"data":null}</t>
         </is>
       </c>
-      <c r="M6" s="30" t="inlineStr">
+      <c r="M6" s="29" t="inlineStr">
         <is>
           <t>offline</t>
         </is>
       </c>
-      <c r="N6" s="30" t="inlineStr">
+      <c r="N6" s="29" t="inlineStr">
         <is>
           <t>包含</t>
         </is>
       </c>
-      <c r="O6" s="34" t="b">
+      <c r="O6" s="33" t="b">
         <v>1</v>
       </c>
       <c r="R6" t="n">
-        <v>0.163424</v>
+        <v>0.032231</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1455,50 +1455,50 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="30" t="n">
+      <c r="A7" s="29" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="30" t="inlineStr">
+      <c r="B7" s="29" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="C7" s="30" t="inlineStr">
+      <c r="C7" s="29" t="inlineStr">
         <is>
           <t>DeviceTime相关</t>
         </is>
       </c>
-      <c r="D7" s="30" t="inlineStr">
+      <c r="D7" s="29" t="inlineStr">
         <is>
           <t>对不存在的DCU设置时间</t>
         </is>
       </c>
-      <c r="E7" s="30" t="inlineStr">
+      <c r="E7" s="29" t="inlineStr">
         <is>
           <t>DCU进行设置时间操作</t>
         </is>
       </c>
-      <c r="F7" s="30" t="inlineStr">
+      <c r="F7" s="29" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="G7" s="30" t="inlineStr">
+      <c r="G7" s="29" t="inlineStr">
         <is>
           <t>/Mdm/setTime</t>
         </is>
       </c>
-      <c r="H7" s="30" t="inlineStr">
+      <c r="H7" s="29" t="inlineStr">
         <is>
           <t>{"Content-type": "application/json; charset=utf-8"}</t>
         </is>
       </c>
-      <c r="I7" s="30" t="inlineStr">
+      <c r="I7" s="29" t="inlineStr">
         <is>
           <t>{"deviceNo": "900000000000","transactionId": "1","deviceType": "10","taskType": "0","year": "2020","month": "04","day": "04","hour": "23","minute": "23","second": "23"}</t>
         </is>
       </c>
-      <c r="J7" s="30" t="n">
+      <c r="J7" s="29" t="n">
         <v>200</v>
       </c>
       <c r="K7" t="inlineStr">
@@ -1506,21 +1506,21 @@
           <t>{"code":500,"desc":"DCU No.(900000000000) is not found","deviceNo":null,"transactionId":null,"parameter":null,"data":null}</t>
         </is>
       </c>
-      <c r="M7" s="30" t="inlineStr">
+      <c r="M7" s="29" t="inlineStr">
         <is>
           <t>DCU No.(900000000000) is not found</t>
         </is>
       </c>
-      <c r="N7" s="30" t="inlineStr">
+      <c r="N7" s="29" t="inlineStr">
         <is>
           <t>包含</t>
         </is>
       </c>
-      <c r="O7" s="34" t="b">
+      <c r="O7" s="33" t="b">
         <v>1</v>
       </c>
       <c r="R7" t="n">
-        <v>0.022416</v>
+        <v>0.02733</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1529,732 +1529,732 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="30" t="n">
+      <c r="A8" s="29" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="30" t="inlineStr">
+      <c r="B8" s="29" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="C8" s="30" t="inlineStr">
+      <c r="C8" s="29" t="inlineStr">
         <is>
           <t>DeviceTime相关</t>
         </is>
       </c>
-      <c r="D8" s="30" t="inlineStr">
+      <c r="D8" s="29" t="inlineStr">
         <is>
           <t>对在线Meter读取时间</t>
         </is>
       </c>
-      <c r="E8" s="30" t="inlineStr">
+      <c r="E8" s="29" t="inlineStr">
         <is>
           <t>GPRS Meter进行读取时间操作</t>
         </is>
       </c>
-      <c r="F8" s="30" t="inlineStr">
+      <c r="F8" s="29" t="inlineStr">
         <is>
           <t>GET</t>
         </is>
       </c>
-      <c r="G8" s="30" t="inlineStr">
+      <c r="G8" s="29" t="inlineStr">
         <is>
           <t>/Mdm/getTime</t>
         </is>
       </c>
-      <c r="H8" s="30" t="inlineStr">
+      <c r="H8" s="29" t="inlineStr">
         <is>
           <t>{"Content-type": "application/json; charset=utf-8"}</t>
         </is>
       </c>
-      <c r="I8" s="30" t="inlineStr">
+      <c r="I8" s="29" t="inlineStr">
         <is>
           <t>{"deviceNo":"111190322258","deviceType":"1","transactionId":"1","taskType":"0","api-version":"1.0"}</t>
         </is>
       </c>
-      <c r="J8" s="30" t="n">
+      <c r="J8" s="29" t="n">
         <v>200</v>
       </c>
-      <c r="M8" s="30" t="inlineStr">
+      <c r="M8" s="29" t="inlineStr">
         <is>
           <t>offline</t>
         </is>
       </c>
-      <c r="N8" s="30" t="inlineStr">
+      <c r="N8" s="29" t="inlineStr">
         <is>
           <t>包含</t>
         </is>
       </c>
-      <c r="O8" s="34" t="n"/>
+      <c r="O8" s="33" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="30" t="n">
+      <c r="A9" s="29" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="30" t="inlineStr">
+      <c r="B9" s="29" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="C9" s="30" t="inlineStr">
+      <c r="C9" s="29" t="inlineStr">
         <is>
           <t>DeviceTime相关</t>
         </is>
       </c>
-      <c r="D9" s="30" t="inlineStr">
+      <c r="D9" s="29" t="inlineStr">
         <is>
           <t>对离线Meter读取时间</t>
         </is>
       </c>
-      <c r="E9" s="30" t="inlineStr">
+      <c r="E9" s="29" t="inlineStr">
         <is>
           <t>GPRS Meter进行读取时间操作</t>
         </is>
       </c>
-      <c r="F9" s="30" t="inlineStr">
+      <c r="F9" s="29" t="inlineStr">
         <is>
           <t>GET</t>
         </is>
       </c>
-      <c r="G9" s="30" t="inlineStr">
+      <c r="G9" s="29" t="inlineStr">
         <is>
           <t>/Mdm/getTime</t>
         </is>
       </c>
-      <c r="H9" s="30" t="inlineStr">
+      <c r="H9" s="29" t="inlineStr">
         <is>
           <t>{"Content-type": "application/json; charset=utf-8"}</t>
         </is>
       </c>
-      <c r="I9" s="30" t="inlineStr">
+      <c r="I9" s="29" t="inlineStr">
         <is>
           <t>{"deviceNo":"111200312102","deviceType":"1","transactionId":"1","taskType":"0","api-version":"1.0"}</t>
         </is>
       </c>
-      <c r="J9" s="30" t="n">
+      <c r="J9" s="29" t="n">
         <v>200</v>
       </c>
-      <c r="M9" s="30" t="inlineStr">
+      <c r="M9" s="29" t="inlineStr">
         <is>
           <t>offline</t>
         </is>
       </c>
-      <c r="N9" s="30" t="inlineStr">
+      <c r="N9" s="29" t="inlineStr">
         <is>
           <t>包含</t>
         </is>
       </c>
-      <c r="O9" s="34" t="n"/>
+      <c r="O9" s="33" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="30" t="n">
+      <c r="A10" s="29" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="30" t="inlineStr">
+      <c r="B10" s="29" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="C10" s="30" t="inlineStr">
+      <c r="C10" s="29" t="inlineStr">
         <is>
           <t>DeviceTime相关</t>
         </is>
       </c>
-      <c r="D10" s="30" t="inlineStr">
+      <c r="D10" s="29" t="inlineStr">
         <is>
           <t>对不存在Meter读取时间</t>
         </is>
       </c>
-      <c r="E10" s="30" t="inlineStr">
+      <c r="E10" s="29" t="inlineStr">
         <is>
           <t>GPRS Meter进行读取时间操作</t>
         </is>
       </c>
-      <c r="F10" s="30" t="inlineStr">
+      <c r="F10" s="29" t="inlineStr">
         <is>
           <t>GET</t>
         </is>
       </c>
-      <c r="G10" s="30" t="inlineStr">
+      <c r="G10" s="29" t="inlineStr">
         <is>
           <t>/Mdm/getTime</t>
         </is>
       </c>
-      <c r="H10" s="30" t="inlineStr">
+      <c r="H10" s="29" t="inlineStr">
         <is>
           <t>{"Content-type": "application/json; charset=utf-8"}</t>
         </is>
       </c>
-      <c r="I10" s="30" t="inlineStr">
+      <c r="I10" s="29" t="inlineStr">
         <is>
           <t>{"deviceNo":"800000000000","deviceType":"1","transactionId":"1","taskType":"0","api-version":"1.0"}</t>
         </is>
       </c>
-      <c r="J10" s="30" t="n">
+      <c r="J10" s="29" t="n">
         <v>200</v>
       </c>
-      <c r="M10" s="30" t="inlineStr">
+      <c r="M10" s="29" t="inlineStr">
         <is>
           <t>offline</t>
         </is>
       </c>
-      <c r="N10" s="30" t="inlineStr">
+      <c r="N10" s="29" t="inlineStr">
         <is>
           <t>包含</t>
         </is>
       </c>
-      <c r="O10" s="34" t="n"/>
+      <c r="O10" s="33" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="30" t="n">
+      <c r="A11" s="29" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="30" t="inlineStr">
+      <c r="B11" s="29" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="C11" s="30" t="inlineStr">
+      <c r="C11" s="29" t="inlineStr">
         <is>
           <t>DeviceTime相关</t>
         </is>
       </c>
-      <c r="D11" s="30" t="inlineStr">
+      <c r="D11" s="29" t="inlineStr">
         <is>
           <t>对在线的Meter设置时间</t>
         </is>
       </c>
-      <c r="E11" s="30" t="inlineStr">
+      <c r="E11" s="29" t="inlineStr">
         <is>
           <t>GPRS Meter进行设置时间操作</t>
         </is>
       </c>
-      <c r="F11" s="30" t="inlineStr">
+      <c r="F11" s="29" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="G11" s="30" t="inlineStr">
+      <c r="G11" s="29" t="inlineStr">
         <is>
           <t>/Mdm/setTime</t>
         </is>
       </c>
-      <c r="H11" s="30" t="inlineStr">
+      <c r="H11" s="29" t="inlineStr">
         <is>
           <t>{"Content-type": "application/json; charset=utf-8"}</t>
         </is>
       </c>
-      <c r="I11" s="30" t="inlineStr">
+      <c r="I11" s="29" t="inlineStr">
         <is>
           <t>{"deviceNo": "900000000000","transactionId": "1","deviceType": "1","taskType": "0","year": "2020","month": "04","day": "04","hour": "23","minute": "23","second": "23"}</t>
         </is>
       </c>
-      <c r="J11" s="30" t="n">
+      <c r="J11" s="29" t="n">
         <v>200</v>
       </c>
-      <c r="M11" s="30" t="inlineStr">
+      <c r="M11" s="29" t="inlineStr">
         <is>
           <t>Meter No.(900000000000) is not found</t>
         </is>
       </c>
-      <c r="N11" s="30" t="inlineStr">
+      <c r="N11" s="29" t="inlineStr">
         <is>
           <t>包含</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="30" t="n">
+      <c r="A12" s="29" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="30" t="inlineStr">
+      <c r="B12" s="29" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="C12" s="30" t="inlineStr">
+      <c r="C12" s="29" t="inlineStr">
         <is>
           <t>DeviceTime相关</t>
         </is>
       </c>
-      <c r="D12" s="30" t="inlineStr">
+      <c r="D12" s="29" t="inlineStr">
         <is>
           <t>对离线的Meter设置时间</t>
         </is>
       </c>
-      <c r="E12" s="30" t="inlineStr">
+      <c r="E12" s="29" t="inlineStr">
         <is>
           <t>GPRS Meter进行设置时间操作</t>
         </is>
       </c>
-      <c r="F12" s="30" t="inlineStr">
+      <c r="F12" s="29" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="G12" s="30" t="inlineStr">
+      <c r="G12" s="29" t="inlineStr">
         <is>
           <t>/Mdm/setTime</t>
         </is>
       </c>
-      <c r="H12" s="30" t="inlineStr">
+      <c r="H12" s="29" t="inlineStr">
         <is>
           <t>{"Content-type": "application/json; charset=utf-8"}</t>
         </is>
       </c>
-      <c r="I12" s="30" t="inlineStr">
+      <c r="I12" s="29" t="inlineStr">
         <is>
           <t>{"deviceNo": "900000000000","transactionId": "1","deviceType": "1","taskType": "0","year": "2020","month": "04","day": "04","hour": "23","minute": "23","second": "23"}</t>
         </is>
       </c>
-      <c r="J12" s="30" t="n">
+      <c r="J12" s="29" t="n">
         <v>200</v>
       </c>
-      <c r="M12" s="30" t="inlineStr">
+      <c r="M12" s="29" t="inlineStr">
         <is>
           <t>offline</t>
         </is>
       </c>
-      <c r="N12" s="30" t="inlineStr">
+      <c r="N12" s="29" t="inlineStr">
         <is>
           <t>包含</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="30" t="n">
+      <c r="A13" s="29" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="30" t="inlineStr">
+      <c r="B13" s="29" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="C13" s="30" t="inlineStr">
+      <c r="C13" s="29" t="inlineStr">
         <is>
           <t>DeviceTime相关</t>
         </is>
       </c>
-      <c r="D13" s="30" t="inlineStr">
+      <c r="D13" s="29" t="inlineStr">
         <is>
           <t>对不存在的Meter设置时间</t>
         </is>
       </c>
-      <c r="E13" s="30" t="inlineStr">
+      <c r="E13" s="29" t="inlineStr">
         <is>
           <t>GPRS Meter进行设置时间操作</t>
         </is>
       </c>
-      <c r="F13" s="30" t="inlineStr">
+      <c r="F13" s="29" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="G13" s="30" t="inlineStr">
+      <c r="G13" s="29" t="inlineStr">
         <is>
           <t>/Mdm/setTime</t>
         </is>
       </c>
-      <c r="H13" s="30" t="inlineStr">
+      <c r="H13" s="29" t="inlineStr">
         <is>
           <t>{"Content-type": "application/json; charset=utf-8"}</t>
         </is>
       </c>
-      <c r="I13" s="30" t="inlineStr">
+      <c r="I13" s="29" t="inlineStr">
         <is>
           <t>{"deviceNo": "900000000000","transactionId": "1","deviceType": "1","taskType": "0","year": "2020","month": "04","day": "04","hour": "23","minute": "23","second": "23"}</t>
         </is>
       </c>
-      <c r="J13" s="30" t="n">
+      <c r="J13" s="29" t="n">
         <v>200</v>
       </c>
-      <c r="M13" s="30" t="inlineStr">
+      <c r="M13" s="29" t="inlineStr">
         <is>
           <t>Meter No.(900000000000) is not found</t>
         </is>
       </c>
-      <c r="N13" s="30" t="inlineStr">
+      <c r="N13" s="29" t="inlineStr">
         <is>
           <t>包含</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="30" t="n">
+      <c r="A14" s="29" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="30" t="inlineStr">
+      <c r="B14" s="29" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="C14" s="30" t="inlineStr">
+      <c r="C14" s="29" t="inlineStr">
         <is>
           <t>DeviceTime相关</t>
         </is>
       </c>
-      <c r="D14" s="30" t="inlineStr">
+      <c r="D14" s="29" t="inlineStr">
         <is>
           <t>对未注册的PLC/RF Meter读取时间</t>
         </is>
       </c>
-      <c r="E14" s="30" t="inlineStr">
+      <c r="E14" s="29" t="inlineStr">
         <is>
           <t>PLC/RF Meter进行读取时间操作</t>
         </is>
       </c>
-      <c r="F14" s="30" t="inlineStr">
+      <c r="F14" s="29" t="inlineStr">
         <is>
           <t>GET</t>
         </is>
       </c>
-      <c r="G14" s="30" t="inlineStr">
+      <c r="G14" s="29" t="inlineStr">
         <is>
           <t>/Mdm/getTime</t>
         </is>
       </c>
-      <c r="H14" s="30" t="inlineStr">
+      <c r="H14" s="29" t="inlineStr">
         <is>
           <t>{"Content-type": "application/json; charset=utf-8"}</t>
         </is>
       </c>
-      <c r="I14" s="30" t="inlineStr">
+      <c r="I14" s="29" t="inlineStr">
         <is>
           <t>{"deviceNo":"111190322258","deviceType":"1","transactionId":"1","taskType":"0","api-version":"1.0"}</t>
         </is>
       </c>
-      <c r="J14" s="30" t="n">
+      <c r="J14" s="29" t="n">
         <v>200</v>
       </c>
-      <c r="M14" s="30" t="inlineStr">
+      <c r="M14" s="29" t="inlineStr">
         <is>
           <t>offline</t>
         </is>
       </c>
-      <c r="N14" s="30" t="inlineStr">
+      <c r="N14" s="29" t="inlineStr">
         <is>
           <t>包含</t>
         </is>
       </c>
-      <c r="O14" s="34" t="n"/>
+      <c r="O14" s="33" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="30" t="n">
+      <c r="A15" s="29" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="30" t="inlineStr">
+      <c r="B15" s="29" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="C15" s="30" t="inlineStr">
+      <c r="C15" s="29" t="inlineStr">
         <is>
           <t>DeviceTime相关</t>
         </is>
       </c>
-      <c r="D15" s="30" t="inlineStr">
+      <c r="D15" s="29" t="inlineStr">
         <is>
           <t>对已注册但是DCU不在线的PLC/RFMeter读取时间</t>
         </is>
       </c>
-      <c r="E15" s="30" t="inlineStr">
+      <c r="E15" s="29" t="inlineStr">
         <is>
           <t>PLC/RF Meter进行读取时间操作</t>
         </is>
       </c>
-      <c r="F15" s="30" t="inlineStr">
+      <c r="F15" s="29" t="inlineStr">
         <is>
           <t>GET</t>
         </is>
       </c>
-      <c r="G15" s="30" t="inlineStr">
+      <c r="G15" s="29" t="inlineStr">
         <is>
           <t>/Mdm/getTime</t>
         </is>
       </c>
-      <c r="H15" s="30" t="inlineStr">
+      <c r="H15" s="29" t="inlineStr">
         <is>
           <t>{"Content-type": "application/json; charset=utf-8"}</t>
         </is>
       </c>
-      <c r="I15" s="30" t="inlineStr">
+      <c r="I15" s="29" t="inlineStr">
         <is>
           <t>{"deviceNo":"111200312102","deviceType":"1","transactionId":"1","taskType":"0","api-version":"1.0"}</t>
         </is>
       </c>
-      <c r="J15" s="30" t="n">
+      <c r="J15" s="29" t="n">
         <v>200</v>
       </c>
-      <c r="M15" s="30" t="inlineStr">
+      <c r="M15" s="29" t="inlineStr">
         <is>
           <t>offline</t>
         </is>
       </c>
-      <c r="N15" s="30" t="inlineStr">
+      <c r="N15" s="29" t="inlineStr">
         <is>
           <t>包含</t>
         </is>
       </c>
-      <c r="O15" s="34" t="n"/>
+      <c r="O15" s="33" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="30" t="n">
+      <c r="A16" s="29" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="30" t="inlineStr">
+      <c r="B16" s="29" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="C16" s="30" t="inlineStr">
+      <c r="C16" s="29" t="inlineStr">
         <is>
           <t>DeviceTime相关</t>
         </is>
       </c>
-      <c r="D16" s="30" t="inlineStr">
+      <c r="D16" s="29" t="inlineStr">
         <is>
           <t>对已注册DCU也在线的PLC/RF Meter读取时间</t>
         </is>
       </c>
-      <c r="E16" s="30" t="inlineStr">
+      <c r="E16" s="29" t="inlineStr">
         <is>
           <t>PLC/RF Meter进行读取时间操作</t>
         </is>
       </c>
-      <c r="F16" s="30" t="inlineStr">
+      <c r="F16" s="29" t="inlineStr">
         <is>
           <t>GET</t>
         </is>
       </c>
-      <c r="G16" s="30" t="inlineStr">
+      <c r="G16" s="29" t="inlineStr">
         <is>
           <t>/Mdm/getTime</t>
         </is>
       </c>
-      <c r="H16" s="30" t="inlineStr">
+      <c r="H16" s="29" t="inlineStr">
         <is>
           <t>{"Content-type": "application/json; charset=utf-8"}</t>
         </is>
       </c>
-      <c r="I16" s="30" t="inlineStr">
+      <c r="I16" s="29" t="inlineStr">
         <is>
           <t>{"deviceNo":"800000000000","deviceType":"1","transactionId":"1","taskType":"0","api-version":"1.0"}</t>
         </is>
       </c>
-      <c r="J16" s="30" t="n">
+      <c r="J16" s="29" t="n">
         <v>200</v>
       </c>
-      <c r="M16" s="30" t="inlineStr">
+      <c r="M16" s="29" t="inlineStr">
         <is>
           <t>offline</t>
         </is>
       </c>
-      <c r="N16" s="30" t="inlineStr">
+      <c r="N16" s="29" t="inlineStr">
         <is>
           <t>包含</t>
         </is>
       </c>
-      <c r="O16" s="34" t="n"/>
+      <c r="O16" s="33" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="30" t="n">
+      <c r="A17" s="29" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="30" t="inlineStr">
+      <c r="B17" s="29" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="C17" s="30" t="inlineStr">
+      <c r="C17" s="29" t="inlineStr">
         <is>
           <t>DeviceTime相关</t>
         </is>
       </c>
-      <c r="D17" s="30" t="inlineStr">
+      <c r="D17" s="29" t="inlineStr">
         <is>
           <t>对未注册的PLC/RF Meter设置时间</t>
         </is>
       </c>
-      <c r="E17" s="30" t="inlineStr">
+      <c r="E17" s="29" t="inlineStr">
         <is>
           <t>PLC/RF Meter进行设置时间操作</t>
         </is>
       </c>
-      <c r="F17" s="30" t="inlineStr">
+      <c r="F17" s="29" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="G17" s="30" t="inlineStr">
+      <c r="G17" s="29" t="inlineStr">
         <is>
           <t>/Mdm/setTime</t>
         </is>
       </c>
-      <c r="H17" s="30" t="inlineStr">
+      <c r="H17" s="29" t="inlineStr">
         <is>
           <t>{"Content-type": "application/json; charset=utf-8"}</t>
         </is>
       </c>
-      <c r="I17" s="30" t="inlineStr">
+      <c r="I17" s="29" t="inlineStr">
         <is>
           <t>{"deviceNo": "900000000000","transactionId": "1","deviceType": "1","taskType": "0","year": "2020","month": "04","day": "04","hour": "23","minute": "23","second": "23"}</t>
         </is>
       </c>
-      <c r="J17" s="30" t="n">
+      <c r="J17" s="29" t="n">
         <v>200</v>
       </c>
-      <c r="M17" s="30" t="inlineStr">
+      <c r="M17" s="29" t="inlineStr">
         <is>
           <t>Meter No.(900000000000) is not found</t>
         </is>
       </c>
-      <c r="N17" s="30" t="inlineStr">
+      <c r="N17" s="29" t="inlineStr">
         <is>
           <t>包含</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="30" t="n">
+      <c r="A18" s="29" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="30" t="inlineStr">
+      <c r="B18" s="29" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="C18" s="30" t="inlineStr">
+      <c r="C18" s="29" t="inlineStr">
         <is>
           <t>DeviceTime相关</t>
         </is>
       </c>
-      <c r="D18" s="30" t="inlineStr">
+      <c r="D18" s="29" t="inlineStr">
         <is>
           <t>对已注册但是DCU不在线的PLC/RFMeter设置时间</t>
         </is>
       </c>
-      <c r="E18" s="30" t="inlineStr">
+      <c r="E18" s="29" t="inlineStr">
         <is>
           <t>PLC/RF Meter进行设置时间操作</t>
         </is>
       </c>
-      <c r="F18" s="30" t="inlineStr">
+      <c r="F18" s="29" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="G18" s="30" t="inlineStr">
+      <c r="G18" s="29" t="inlineStr">
         <is>
           <t>/Mdm/setTime</t>
         </is>
       </c>
-      <c r="H18" s="30" t="inlineStr">
+      <c r="H18" s="29" t="inlineStr">
         <is>
           <t>{"Content-type": "application/json; charset=utf-8"}</t>
         </is>
       </c>
-      <c r="I18" s="30" t="inlineStr">
+      <c r="I18" s="29" t="inlineStr">
         <is>
           <t>{"deviceNo": "900000000000","transactionId": "1","deviceType": "1","taskType": "0","year": "2020","month": "04","day": "04","hour": "23","minute": "23","second": "23"}</t>
         </is>
       </c>
-      <c r="J18" s="30" t="n">
+      <c r="J18" s="29" t="n">
         <v>200</v>
       </c>
-      <c r="M18" s="30" t="inlineStr">
+      <c r="M18" s="29" t="inlineStr">
         <is>
           <t>offline</t>
         </is>
       </c>
-      <c r="N18" s="30" t="inlineStr">
+      <c r="N18" s="29" t="inlineStr">
         <is>
           <t>包含</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="30" t="n">
+      <c r="A19" s="29" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="30" t="inlineStr">
+      <c r="B19" s="29" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="C19" s="30" t="inlineStr">
+      <c r="C19" s="29" t="inlineStr">
         <is>
           <t>DeviceTime相关</t>
         </is>
       </c>
-      <c r="D19" s="30" t="inlineStr">
+      <c r="D19" s="29" t="inlineStr">
         <is>
           <t>对已注册DCU也在线的PLC/RF Meter设置时间</t>
         </is>
       </c>
-      <c r="E19" s="30" t="inlineStr">
+      <c r="E19" s="29" t="inlineStr">
         <is>
           <t>PLC/RF Meter进行设置时间操作</t>
         </is>
       </c>
-      <c r="F19" s="30" t="inlineStr">
+      <c r="F19" s="29" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="G19" s="30" t="inlineStr">
+      <c r="G19" s="29" t="inlineStr">
         <is>
           <t>/Mdm/setTime</t>
         </is>
       </c>
-      <c r="H19" s="30" t="inlineStr">
+      <c r="H19" s="29" t="inlineStr">
         <is>
           <t>{"Content-type": "application/json; charset=utf-8"}</t>
         </is>
       </c>
-      <c r="I19" s="30" t="inlineStr">
+      <c r="I19" s="29" t="inlineStr">
         <is>
           <t>{"deviceNo": "900000000000","transactionId": "1","deviceType": "1","taskType": "0","year": "2020","month": "04","day": "04","hour": "23","minute": "23","second": "23"}</t>
         </is>
       </c>
-      <c r="J19" s="30" t="n">
+      <c r="J19" s="29" t="n">
         <v>200</v>
       </c>
-      <c r="M19" s="30" t="inlineStr">
+      <c r="M19" s="29" t="inlineStr">
         <is>
           <t>Meter No.(900000000000) is not found</t>
         </is>
       </c>
-      <c r="N19" s="30" t="inlineStr">
+      <c r="N19" s="29" t="inlineStr">
         <is>
           <t>包含</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="30" t="n">
+      <c r="A20" s="29" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="30" t="inlineStr">
+      <c r="B20" s="29" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="C20" s="30" t="inlineStr">
+      <c r="C20" s="29" t="inlineStr">
         <is>
           <t>DeviceTime相关</t>
         </is>
       </c>
-      <c r="D20" s="30" t="inlineStr">
+      <c r="D20" s="29" t="inlineStr">
         <is>
           <t>对秘钥档案错误的DCU进行读取时间</t>
         </is>
       </c>
-      <c r="E20" s="30" t="inlineStr">
+      <c r="E20" s="29" t="inlineStr">
         <is>
           <t>档案秘钥异常测试</t>
         </is>
       </c>
-      <c r="F20" s="30" t="inlineStr">
+      <c r="F20" s="29" t="inlineStr">
         <is>
           <t>GET</t>
         </is>
@@ -2385,7 +2385,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="25.2" customHeight="1" s="20">
-      <c r="A1" s="35" t="inlineStr">
+      <c r="A1" s="34" t="inlineStr">
         <is>
           <t>测试报告总概况</t>
         </is>
